--- a/数据整理/stocks/港股/00525-广深铁路股份.xlsx
+++ b/数据整理/stocks/港股/00525-广深铁路股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00525-广深铁路股份.xlsx
+++ b/数据整理/stocks/港股/00525-广深铁路股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,319 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008269</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成睿享混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>65.25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5272</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1502</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1452</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1250</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>65.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0116</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1096,64 +842,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.41</v>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.05</v>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00525-广深铁路股份.xlsx
+++ b/数据整理/stocks/港股/00525-广深铁路股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.41</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -581,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.46</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3087</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -619,26 +636,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3612</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -657,22 +674,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2584</t>
+          <t>0.2037</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -690,27 +707,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成投资严选六月持有混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2279</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -733,26 +750,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2263</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -766,27 +783,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+          <t>大成投资严选六月持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -809,22 +826,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -837,6 +854,328 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00525-广深铁路股份.xlsx
+++ b/数据整理/stocks/港股/00525-广深铁路股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.41</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -598,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>23.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>66.91</t>
+          <t>63.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8692</t>
+          <t>1.0557</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -636,26 +653,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>62.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2862</t>
+          <t>0.4028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013463</t>
+          <t>008270</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成致远优势一年持有期混合A</t>
+          <t>大成睿享混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60.88</t>
+          <t>63.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2037</t>
+          <t>0.3697</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -712,26 +729,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.75</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1798</t>
+          <t>0.1872</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -740,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.91</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1765</t>
+          <t>0.1602</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -788,26 +805,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>66.75</t>
+          <t>64.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -826,26 +843,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60.88</t>
+          <t>66.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -920,26 +937,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.46</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3087</t>
+          <t>0.8692</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +975,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3612</t>
+          <t>0.2862</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -996,22 +1013,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2584</t>
+          <t>0.2037</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1029,27 +1046,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>大成投资严选六月持有混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2279</t>
+          <t>0.1798</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1072,26 +1089,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>62.72</t>
+          <t>66.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2263</t>
+          <t>0.1765</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1105,27 +1122,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+          <t>大成投资严选六月持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>66.75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1148,22 +1165,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61.36</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1176,6 +1193,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
